--- a/definition测试/Tosdata/output.xlsx
+++ b/definition测试/Tosdata/output.xlsx
@@ -448,14 +448,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customers and their users are prohibited from using Amplitude services to handle customer data in a manner that violates applicable laws, regulations, privacy policies, or agreements with end users.&gt;{#type1-Q1-1#,&lt;Customer and their users  ;  prohibited from using  ;  Amplitude services to handle customer data  ;  in a manner that violates applicable laws, regulations, privacy policies, or agreements with end users  ;  NULL  ;  NULL&gt;}
-&lt;Description: Customers and their users are not allowed to permit any third party to indirectly use the Amplitude services in a way that violates the above-mentioned standards.&gt;{#type2-Q1-1,#  &lt;Customers and their users  ;  are not allowed  ;  to permit any third party to indirectly use the Amplitude services  ;  violating the above-mentioned standards  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: any third party&gt;}
+          <t xml:space="preserve">&lt;Description: Customers and their users are prohibited from using Amplitude services to submit, process, store, or transmit customer data in violation of applicable laws, regulations, privacy policies, or agreements with end users.&gt;{#type1-Q1-1#,&lt;Customer and their users  ;  prohibited from using  ;  Amplitude services  ;  NULL  ;  to submit, process, store, or transmit customer data  ;  in violation of applicable laws, regulations, privacy policies, or agreements with end users&gt;}
+&lt;Description: Customers and their users are not allowed to enable third parties to indirectly use the Amplitude services in a manner that violates any applicable laws, regulations, privacy policies, or agreements with end users.&gt;{#type2-Q1-1,#  &lt;Customers and their users  ;  are not allowed  ;  to enable third parties to indirectly use the Amplitude services  ;  in a manner that violates any applicable laws, regulations, privacy policies, or agreements with end users  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt;}
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: Customers and their users are prohibited from using Amplitude services to handle customer data in a manner that violates applicable laws, regulations, privacy policies, or agreements with end users.', 'Customer and their users  ', '  prohibited from using  ', '  Amplitude services to handle customer data  ', '  in a manner that violates applicable laws, regulations, privacy policies, or agreements with end users  ', '  NULL  ', '  NULL'], ['type2-Q1-1,', 'Description: Customers and their users are not allowed to permit any third party to indirectly use the Amplitude services in a way that violates the above-mentioned standards.', 'Customers and their users  ', '  are not allowed  ', '  to permit any third party to indirectly use the Amplitude services  ', '  violating the above-mentioned standards  ', '  NULL  ', '  NULL', 'Third party is: any third party']]</t>
+          <t>[['type1-Q1-1', 'Description: Customers and their users are prohibited from using Amplitude services to submit, process, store, or transmit customer data in violation of applicable laws, regulations, privacy policies, or agreements with end users.', 'Customer and their users  ', '  prohibited from using  ', '  Amplitude services  ', '  NULL  ', '  to submit, process, store, or transmit customer data  ', '  in violation of applicable laws, regulations, privacy policies, or agreements with end users'], ['type2-Q1-1,', 'Description: Customers and their users are not allowed to enable third parties to indirectly use the Amplitude services in a manner that violates any applicable laws, regulations, privacy policies, or agreements with end users.', 'Customers and their users  ', '  are not allowed  ', '  to enable third parties to indirectly use the Amplitude services  ', '  in a manner that violates any applicable laws, regulations, privacy policies, or agreements with end users  ', '  NULL  ', '  NULL', 'Third party is: third parties']]</t>
         </is>
       </c>
     </row>
@@ -464,42 +464,42 @@
         <is>
           <t xml:space="preserve">&lt;Description: The customer is responsible for maintaining the security of user IDs, passwords, and other access credentials.&gt;{#type1-Q1-1#,&lt;Customer  ;  maintaining  ;  security of user IDs, passwords, and other access credentials  ;  NULL  ;  NULL  ;  NULL&gt;}
 &lt;Description: The customer must ensure that these access credentials are kept strictly confidential.&gt;{#type1-Q1-1#,&lt;Customer  ;  ensure  ;  access credentials are kept strictly confidential  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: The customer must not share access credentials with any unauthorized person or entity.&gt;{#type2-Q1-1,#  &lt;Customer  ;  must not share  ;  access credentials with any unauthorized person or entity  ;  with any unauthorized person or entity  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: any unauthorized person or entity&gt;}
+&lt;Description: The customer must not share access credentials with any unauthorized person or entity.&gt;{#type2-Q1-1,#  &lt;The customer  ;  must not share  ;  access credentials with any unauthorized person or entity  ;  with any unauthorized person or entity  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: any unauthorized person or entity&gt;}
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: The customer is responsible for maintaining the security of user IDs, passwords, and other access credentials.', 'Customer  ', '  maintaining  ', '  security of user IDs, passwords, and other access credentials  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: The customer must ensure that these access credentials are kept strictly confidential.', 'Customer  ', '  ensure  ', '  access credentials are kept strictly confidential  ', '  NULL  ', '  NULL  ', '  NULL'], ['type2-Q1-1,', 'Description: The customer must not share access credentials with any unauthorized person or entity.', 'Customer  ', '  must not share  ', '  access credentials with any unauthorized person or entity  ', '  with any unauthorized person or entity  ', '  NULL  ', '  NULL', 'Third party is: any unauthorized person or entity']]</t>
+          <t>[['type1-Q1-1', 'Description: The customer is responsible for maintaining the security of user IDs, passwords, and other access credentials.', 'Customer  ', '  maintaining  ', '  security of user IDs, passwords, and other access credentials  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: The customer must ensure that these access credentials are kept strictly confidential.', 'Customer  ', '  ensure  ', '  access credentials are kept strictly confidential  ', '  NULL  ', '  NULL  ', '  NULL'], ['type2-Q1-1,', 'Description: The customer must not share access credentials with any unauthorized person or entity.', 'The customer  ', '  must not share  ', '  access credentials with any unauthorized person or entity  ', '  with any unauthorized person or entity  ', '  NULL  ', '  NULL', 'Third party is: any unauthorized person or entity']]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Mixpanel does not sell, lease, rent, or otherwise share customer content for consideration.&gt;{#type2-Q1-1,#  &lt;Mixpanel  ;  does not sell, lease, rent, or otherwise share  ;  customer content  ;  NULL  ;  for consideration  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Mixpanel does not sell, lease, rent, or otherwise share customer content for consideration.&gt;{#type2-Q1-1,#  &lt;Mixpanel  ;  does not sell, lease, rent, or otherwise share  ;  customer content for consideration  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt;}
 &lt;Description: Mixpanel will share customer content only under specific circumstances.&gt;{#type2-Q1-1,#  &lt;Mixpanel  ;  will share  ;  customer content  ;  under specific circumstances  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['type2-Q1-1,', 'Description: Mixpanel does not sell, lease, rent, or otherwise share customer content for consideration.', 'Mixpanel  ', '  does not sell, lease, rent, or otherwise share  ', '  customer content  ', '  NULL  ', '  for consideration  ', '  NULL', 'Third party is: NULL'], ['type2-Q1-1,', 'Description: Mixpanel will share customer content only under specific circumstances.', 'Mixpanel  ', '  will share  ', '  customer content  ', '  under specific circumstances  ', '  NULL  ', '  NULL', 'Third party is: NULL']]</t>
+          <t>[['type2-Q1-1,', 'Description: Mixpanel does not sell, lease, rent, or otherwise share customer content for consideration.', 'Mixpanel  ', '  does not sell, lease, rent, or otherwise share  ', '  customer content for consideration  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: NULL'], ['type2-Q1-1,', 'Description: Mixpanel will share customer content only under specific circumstances.', 'Mixpanel  ', '  will share  ', '  customer content  ', '  under specific circumstances  ', '  NULL  ', '  NULL', 'Third party is: NULL']]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customers with services/apps directed to children must comply with the US Children鈥檚 Online Privacy Protection Act (COPPA).&gt;{#type1-Q1-1#,&lt;Customer  ;  must comply  ;  with the US Children's Online Privacy Protection Act (COPPA)  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: Customers are not allowed to share personal identifiers such as IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs with Adjust partners or other third parties.&gt;{#type2-Q1-1,#  &lt;Customers  ;  are not allowed  ;  to share personal identifiers such as IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs with Adjust partners or other third parties  ;  with Adjust partners or other third parties  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: Adjust partners or other third parties&gt;}
-&lt;Description: The mentioned identifiers are considered data collected within the services.&gt;{#type1-Q1-1#,&lt;The mentioned identifiers  ;  are considered  ;  data collected within the services  ;  within the services  ;  NULL  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Customers are not allowed to share personal identifiers with partners of Adjust or other third parties.&gt;{#type2-Q1-1,#  &lt;Customers  ;  are not allowed  ;  to share personal identifiers with partners of Adjust or other third parties  ;  with partners of Adjust or other third parties  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: partners of Adjust or other third parties&gt;}
+&lt;Description: Personal identifiers include IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs.&gt;{#type1-Q1-1#,&lt;Personal identifiers  ;  include  ;  IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: These identifiers are potentially data collected within the services.&gt;{#type1-Q1-1#,&lt;These identifiers  ;  are potentially collected  ;  data  ;  within the services  ;  NULL  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: Customers with services/apps directed to children must comply with the US Children鈥檚 Online Privacy Protection Act (COPPA).', 'Customer  ', '  must comply  ', "  with the US Children's Online Privacy Protection Act (COPPA)  ", '  NULL  ', '  NULL  ', '  NULL'], ['type2-Q1-1,', 'Description: Customers are not allowed to share personal identifiers such as IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs with Adjust partners or other third parties.', 'Customers  ', '  are not allowed  ', '  to share personal identifiers such as IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs with Adjust partners or other third parties  ', '  with Adjust partners or other third parties  ', '  NULL  ', '  NULL', 'Third party is: Adjust partners or other third parties'], ['type1-Q1-1', 'Description: The mentioned identifiers are considered data collected within the services.', 'The mentioned identifiers  ', '  are considered  ', '  data collected within the services  ', '  within the services  ', '  NULL  ', '  NULL']]</t>
+          <t>[['type2-Q1-1,', 'Description: Customers are not allowed to share personal identifiers with partners of Adjust or other third parties.', 'Customers  ', '  are not allowed  ', '  to share personal identifiers with partners of Adjust or other third parties  ', '  with partners of Adjust or other third parties  ', '  NULL  ', '  NULL', 'Third party is: partners of Adjust or other third parties'], ['type1-Q1-1', 'Description: Personal identifiers include IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs.', 'Personal identifiers  ', '  include  ', '  IP addresses, IDFA, IDFV, Android ID, Google Play Advertising ID, Google Play Store Referrer, Windows Hardware ID, Windows NetworkID, Windows Phone Device ID, and UUIDs  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: These identifiers are potentially data collected within the services.', 'These identifiers  ', '  are potentially collected  ', '  data  ', '  within the services  ', '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
@@ -532,16 +532,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You may not collect personal information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  personal information directly from your user, a PayPal user, or any other third party  ;  from your user, a PayPal user, or any other third party  ;  on behalf of PayPal  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
+          <t xml:space="preserve">&lt;Description: You may not collect personal information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  personal information directly from your user, a PayPal user, or any other third party  ;  on behalf of PayPal  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
 &lt;Description: You may not collect financial information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  financial information directly from your user, a PayPal user, or any other third party  ;  from your user, a PayPal user, or any other third party  ;  on behalf of PayPal  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
-&lt;Description: You may not collect business information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  business information directly from your user, a PayPal user, or any other third party  ;  from your user, a PayPal user, or any other third party  ;  for PayPal  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
-&lt;Description: You may not collect any other information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  any other information directly from your user, a PayPal user, or any other third party on behalf of PayPal  ;  from your user, a PayPal user, or any other third party  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
+&lt;Description: You may not collect business information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  business information directly from your user, a PayPal user, or any other third party  ;  from your user, a PayPal user, or any other third party  ;  on behalf of PayPal  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
+&lt;Description: You may not collect any other information directly from your user, a PayPal user, or any other third party on behalf of PayPal.&gt;{#type2-Q1-1,#  &lt;You  ;  may not collect  ;  any other information directly from your user, a PayPal user, or any other third party  ;  from your user, a PayPal user, or any other third party  ;  for PayPal  ;  NULL&gt;  ,  &lt;Third party is: any other third party&gt;}
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['type2-Q1-1,', 'Description: You may not collect personal information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  personal information directly from your user, a PayPal user, or any other third party  ', '  from your user, a PayPal user, or any other third party  ', '  on behalf of PayPal  ', '  NULL', 'Third party is: any other third party'], ['type2-Q1-1,', 'Description: You may not collect financial information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  financial information directly from your user, a PayPal user, or any other third party  ', '  from your user, a PayPal user, or any other third party  ', '  on behalf of PayPal  ', '  NULL', 'Third party is: any other third party'], ['type2-Q1-1,', 'Description: You may not collect business information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  business information directly from your user, a PayPal user, or any other third party  ', '  from your user, a PayPal user, or any other third party  ', '  for PayPal  ', '  NULL', 'Third party is: any other third party'], ['type2-Q1-1,', 'Description: You may not collect any other information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  any other information directly from your user, a PayPal user, or any other third party on behalf of PayPal  ', '  from your user, a PayPal user, or any other third party  ', '  NULL  ', '  NULL', 'Third party is: any other third party']]</t>
+          <t>[['type2-Q1-1,', 'Description: You may not collect personal information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  personal information directly from your user, a PayPal user, or any other third party  ', '  on behalf of PayPal  ', '  NULL  ', '  NULL', 'Third party is: any other third party'], ['type2-Q1-1,', 'Description: You may not collect financial information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  financial information directly from your user, a PayPal user, or any other third party  ', '  from your user, a PayPal user, or any other third party  ', '  on behalf of PayPal  ', '  NULL', 'Third party is: any other third party'], ['type2-Q1-1,', 'Description: You may not collect business information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  business information directly from your user, a PayPal user, or any other third party  ', '  from your user, a PayPal user, or any other third party  ', '  on behalf of PayPal  ', '  NULL', 'Third party is: any other third party'], ['type2-Q1-1,', 'Description: You may not collect any other information directly from your user, a PayPal user, or any other third party on behalf of PayPal.', 'You  ', '  may not collect  ', '  any other information directly from your user, a PayPal user, or any other third party  ', '  from your user, a PayPal user, or any other third party  ', '  for PayPal  ', '  NULL', 'Third party is: any other third party']]</t>
         </is>
       </c>
     </row>
@@ -578,15 +578,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developers are prohibited from using the Vungle SDK, Vungle Platform, or any data obtained through these services in any way not explicitly allowed by the agreement.&gt;{#type1-Q1-1#,&lt;Developers  ;  prohibited from using  ;  Vungle SDK, Vungle Platform, or any data obtained through these services  ;  NULL  ;  NULL  ;  in any way not explicitly allowed by the agreement&gt;}
-&lt;Description: Developers must not permit third parties to use the Vungle SDK, Vungle Platform, or any data accessed through these services except as permitted in the agreement.&gt;{#type2-Q1-1,#  &lt;Developers  ;  must not permit  ;  third parties to use the Vungle SDK, Vungle Platform, or any data accessed through these services  ;  through these services  ;  except as permitted in the agreement  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt;}
-&lt;Description: Developers are not allowed to use the Vungle SDK or Platform to re-identify individual end users.&gt;{#type1-Q1-1#,&lt;Developers  ;  not allowed to use  ;  Vungle SDK or Platform  ;  NULL  ;  re-identify individual end users  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Developers are prohibited from using the Vungle SDK, Vungle Platform, or any data collected through these means, except as explicitly allowed in the agreement.&gt;{#type1-Q1-1#,&lt;Developers  ;  prohibited from using  ;  Vungle SDK, Vungle Platform, or any data collected through these means  ;  NULL  ;  NULL  ;  except as explicitly allowed in the agreement&gt;}
+&lt;Description: Developers are also prohibited from allowing third parties to use the Vungle SDK, Vungle Platform, or any data accessed via these tools, beyond what is permitted in the agreement.&gt;{#type2-Q1-1,#  &lt;Developers  ;  are prohibited  ;  from allowing third parties to use the Vungle SDK, Vungle Platform, or any data accessed via these tools  ;  beyond what is permitted in the agreement  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt;}
+&lt;Description: The agreement explicitly forbids the use of the Vungle SDK or Platform to re-identify individual end users.&gt;{#type1-Q1-1#,&lt;The agreement  ;  explicitly forbids  ;  the use of the Vungle SDK or Platform to re-identify individual end users  ;  NULL  ;  NULL  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: Developers are prohibited from using the Vungle SDK, Vungle Platform, or any data obtained through these services in any way not explicitly allowed by the agreement.', 'Developers  ', '  prohibited from using  ', '  Vungle SDK, Vungle Platform, or any data obtained through these services  ', '  NULL  ', '  NULL  ', '  in any way not explicitly allowed by the agreement'], ['type2-Q1-1,', 'Description: Developers must not permit third parties to use the Vungle SDK, Vungle Platform, or any data accessed through these services except as permitted in the agreement.', 'Developers  ', '  must not permit  ', '  third parties to use the Vungle SDK, Vungle Platform, or any data accessed through these services  ', '  through these services  ', '  except as permitted in the agreement  ', '  NULL', 'Third party is: third parties'], ['type1-Q1-1', 'Description: Developers are not allowed to use the Vungle SDK or Platform to re-identify individual end users.', 'Developers  ', '  not allowed to use  ', '  Vungle SDK or Platform  ', '  NULL  ', '  re-identify individual end users  ', '  NULL']]</t>
+          <t>[['type1-Q1-1', 'Description: Developers are prohibited from using the Vungle SDK, Vungle Platform, or any data collected through these means, except as explicitly allowed in the agreement.', 'Developers  ', '  prohibited from using  ', '  Vungle SDK, Vungle Platform, or any data collected through these means  ', '  NULL  ', '  NULL  ', '  except as explicitly allowed in the agreement'], ['type2-Q1-1,', 'Description: Developers are also prohibited from allowing third parties to use the Vungle SDK, Vungle Platform, or any data accessed via these tools, beyond what is permitted in the agreement.', 'Developers  ', '  are prohibited  ', '  from allowing third parties to use the Vungle SDK, Vungle Platform, or any data accessed via these tools  ', '  beyond what is permitted in the agreement  ', '  NULL  ', '  NULL', 'Third party is: third parties'], ['type1-Q1-1', 'Description: The agreement explicitly forbids the use of the Vungle SDK or Platform to re-identify individual end users.', 'The agreement  ', '  explicitly forbids  ', '  the use of the Vungle SDK or Platform to re-identify individual end users  ', '  NULL  ', '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
@@ -608,82 +608,82 @@
       <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;Description: You may use service data for internal business purposes.&gt;{#type1-Q1-1#,&lt;You  ;  Use  ;  service data  ;  NULL  ;  for internal business purposes  ;  NULL&gt;}
-&lt;Description: Use of service data must comply with privacy policies, laws, rules, regulations, and industry self-regulatory regimes.&gt;{#type1-Q1-1#,&lt;Use of service data  ;  must comply  ;  privacy policies, laws, rules, regulations, and industry self-regulatory regimes  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: You must obtain necessary consents, waivers, approvals, authorizations, and clearances from end users as required by applicable laws.&gt;{#type1-Q1-1#,&lt;You  ;  must obtain  ;  necessary consents, waivers, approvals, authorizations, and clearances  ;  from end users  ;  as required by applicable laws  ;  NULL&gt;}
+&lt;Description: Use of service data must comply with all applicable privacy policies, laws, rules, regulations, and industry self-regulatory regimes.&gt;{#type1-Q1-1#,&lt;Use of service data  ;  comply  ;  all applicable privacy policies, laws, rules, regulations, and industry self-regulatory regimes  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: You must obtain any necessary consents, waivers, approvals, authorizations, and clearances from end users as required by applicable laws.&gt;{#type1-Q1-1#,&lt;You  ;  must obtain  ;  necessary consents, waivers, approvals, authorizations, and clearances  ;  from end users  ;  as required by applicable laws  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: You may use service data for internal business purposes.', 'You  ', '  Use  ', '  service data  ', '  NULL  ', '  for internal business purposes  ', '  NULL'], ['type1-Q1-1', 'Description: Use of service data must comply with privacy policies, laws, rules, regulations, and industry self-regulatory regimes.', 'Use of service data  ', '  must comply  ', '  privacy policies, laws, rules, regulations, and industry self-regulatory regimes  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: You must obtain necessary consents, waivers, approvals, authorizations, and clearances from end users as required by applicable laws.', 'You  ', '  must obtain  ', '  necessary consents, waivers, approvals, authorizations, and clearances  ', '  from end users  ', '  as required by applicable laws  ', '  NULL']]</t>
+          <t>[['type1-Q1-1', 'Description: You may use service data for internal business purposes.', 'You  ', '  Use  ', '  service data  ', '  NULL  ', '  for internal business purposes  ', '  NULL'], ['type1-Q1-1', 'Description: Use of service data must comply with all applicable privacy policies, laws, rules, regulations, and industry self-regulatory regimes.', 'Use of service data  ', '  comply  ', '  all applicable privacy policies, laws, rules, regulations, and industry self-regulatory regimes  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: You must obtain any necessary consents, waivers, approvals, authorizations, and clearances from end users as required by applicable laws.', 'You  ', '  must obtain  ', '  necessary consents, waivers, approvals, authorizations, and clearances  ', '  from end users  ', '  as required by applicable laws  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: It shall not process, transfer or share any data generated from or in connection with the services without the prior written consent of Startapp or in violation of Startapp end user privacy policy.&gt;{#type2-Q1-1,#  &lt;It  ;  shall not process, transfer or share  ;  any data generated from or in connection with the services  ;  NULL  ;  to comply with Startapp end user privacy policy  ;  without the prior written consent of Startapp&gt;,  &lt;Third party is: Startapp&gt;}
+          <t xml:space="preserve">&lt;Description: It shall not process, transfer or share any data without prior written consent of StartApp or in violation of StartApp end user privacy policy.&gt;{#type2-Q1-1,#  &lt;It  ;  shall not process, transfer or share  ;  any data  ;  NULL  ;  NULL  ;  without prior written consent of StartApp or in violation of StartApp end user privacy policy&gt;  ,  &lt;Third party is: StartApp&gt;}
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['type2-Q1-1,', 'Description: It shall not process, transfer or share any data generated from or in connection with the services without the prior written consent of Startapp or in violation of Startapp end user privacy policy.', 'It  ', '  shall not process, transfer or share  ', '  any data generated from or in connection with the services  ', '  NULL  ', '  to comply with Startapp end user privacy policy  ', '  without the prior written consent of Startapp', 'Third party is: Startapp']]</t>
+          <t>[['type2-Q1-1,', 'Description: It shall not process, transfer or share any data without prior written consent of StartApp or in violation of StartApp end user privacy policy.', 'It  ', '  shall not process, transfer or share  ', '  any data  ', '  NULL  ', '  NULL  ', '  without prior written consent of StartApp or in violation of StartApp end user privacy policy', 'Third party is: StartApp']]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: No sensitive personal information should be used with the service, except as permitted under section 4.5 for protected health information.&gt;{#type1-Q1-1#,&lt;No sensitive personal information  ;  should be used  ;  with the service  ;  NULL  ;  except as permitted under section 4.5 for protected health information  ;  NULL&gt;}
-&lt;Description: Sentry has no liability for sensitive personal information, except for protected health information (PHI) submitted in accordance with section 4.5.&gt;{#type1-Q1-1#,&lt;Sentry  ;  has no liability  ;  sensitive personal information  ;  NULL  ;  NULL  ;  except for protected health information (PHI) submitted in accordance with section 4.5&gt;}
+          <t xml:space="preserve">&lt;Description: No sensitive personal information should be used with the service, except as permitted under section 4.5 (Protected Health Information).&gt;{#type1-Q1-1#,&lt;No sensitive personal information  ;  should be used  ;  with the service  ;  NULL  ;  except as permitted under section 4.5 (Protected Health Information)  ;  NULL&gt;}
+&lt;Description: Sentry has no liability for sensitive personal information, except for PHI submitted in accordance with section 4.5 (Protected Health Information).&gt;{#type1-Q1-1#,&lt;Sentry  ;  has no liability  ;  sensitive personal information  ;  NULL  ;  NULL  ;  except for PHI submitted in accordance with section 4.5 (Protected Health Information)&gt;}
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: No sensitive personal information should be used with the service, except as permitted under section 4.5 for protected health information.', 'No sensitive personal information  ', '  should be used  ', '  with the service  ', '  NULL  ', '  except as permitted under section 4.5 for protected health information  ', '  NULL'], ['type1-Q1-1', 'Description: Sentry has no liability for sensitive personal information, except for protected health information (PHI) submitted in accordance with section 4.5.', 'Sentry  ', '  has no liability  ', '  sensitive personal information  ', '  NULL  ', '  NULL  ', '  except for protected health information (PHI) submitted in accordance with section 4.5']]</t>
+          <t>[['type1-Q1-1', 'Description: No sensitive personal information should be used with the service, except as permitted under section 4.5 (Protected Health Information).', 'No sensitive personal information  ', '  should be used  ', '  with the service  ', '  NULL  ', '  except as permitted under section 4.5 (Protected Health Information)  ', '  NULL'], ['type1-Q1-1', 'Description: Sentry has no liability for sensitive personal information, except for PHI submitted in accordance with section 4.5 (Protected Health Information).', 'Sentry  ', '  has no liability  ', '  sensitive personal information  ', '  NULL  ', '  NULL  ', '  except for PHI submitted in accordance with section 4.5 (Protected Health Information)']]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Do not copy Dropbox login credentials such as name, email address, and password&gt;{#type1-Q1-1#,&lt;You  ;  Do not copy  ;  Dropbox login credentials such as name, email address, and password  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: Do not use Dropbox login credentials except for initial user authentication&gt;{#type1-Q1-1#,&lt;You  ;  Do not use  ;  Dropbox login credentials  ;  for initial user authentication  ;  NULL  ;  except for initial user authentication&gt;}
-&lt;Description: Do not store Dropbox login credentials outside of the developer app&gt;{#type1-Q1-1#,&lt;You  ;  Do not store  ;  Dropbox login credentials  ;  outside of the developer app  ;  NULL  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Do not copy, use, or store any Dropbox login credentials such as name, email address, and password&gt;{#type1-Q1-1#,&lt;You  ;  not copy, use, or store  ;  Dropbox login credentials such as name, email address, and password  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: The use of Dropbox login credentials is only allowed in connection with the initial user authentication&gt;{#type1-Q1-1#,&lt;Dropbox login credentials  ;  are only allowed  ;  in connection with the initial user authentication  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: The handling of Dropbox login credentials is restricted to within the developer's app only&gt;{#type1-Q1-1#,&lt;developer  ;  handling  ;  Dropbox login credentials  ;  within the developer's app  ;  NULL  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', 'Description: Do not copy Dropbox login credentials such as name, email address, and password', 'You  ', '  Do not copy  ', '  Dropbox login credentials such as name, email address, and password  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: Do not use Dropbox login credentials except for initial user authentication', 'You  ', '  Do not use  ', '  Dropbox login credentials  ', '  for initial user authentication  ', '  NULL  ', '  except for initial user authentication'], ['type1-Q1-1', 'Description: Do not store Dropbox login credentials outside of the developer app', 'You  ', '  Do not store  ', '  Dropbox login credentials  ', '  outside of the developer app  ', '  NULL  ', '  NULL']]</t>
+          <t>[['type1-Q1-1', 'Description: Do not copy, use, or store any Dropbox login credentials such as name, email address, and password', 'You  ', '  not copy, use, or store  ', '  Dropbox login credentials such as name, email address, and password  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', 'Description: The use of Dropbox login credentials is only allowed in connection with the initial user authentication', 'Dropbox login credentials  ', '  are only allowed  ', '  in connection with the initial user authentication  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1-Q1-1', "Description: The handling of Dropbox login credentials is restricted to within the developer's app only", 'developer  ', '  handling  ', '  Dropbox login credentials  ', "  within the developer's app  ", '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Only access, store, transfer, and process user data in accordance with users' instructions and the developer app's configuration settings.&gt;{#type1-Q1-1#,&lt;Developer app  ;  Access, store, transfer, and process  ;  user data  ;  in accordance with users' instructions and the developer app's configuration settings  ;  NULL  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Only access, store, transfer, and process user data as directed by the user, including through a developer app's configuration settings.&gt;{#type1-Q1-1#,&lt;User  ;  Access, store, transfer, process  ;  user data  ;  through a developer app's configuration settings  ;  NULL  ;  directed by the user&gt;}
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['type1-Q1-1', "Description: Only access, store, transfer, and process user data in accordance with users' instructions and the developer app's configuration settings.", 'Developer app  ', '  Access, store, transfer, and process  ', '  user data  ', "  in accordance with users' instructions and the developer app's configuration settings  ", '  NULL  ', '  NULL']]</t>
+          <t>[['type1-Q1-1', "Description: Only access, store, transfer, and process user data as directed by the user, including through a developer app's configuration settings.", 'User  ', '  Access, store, transfer, process  ', '  user data  ', "  through a developer app's configuration settings  ", '  NULL  ', '  directed by the user']]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You may not use any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements.&gt;{#type2-Q1-1,#  &lt;You  ;  may not use  ;  any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements  ;  from the site or services  ;  to not use for advertising purposes or targeting advertisements  ;  NULL&gt;  ,  &lt;Third party is: Zoom&gt;}
+          <t xml:space="preserve">&lt;Description: You may not use any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements.&gt;{#type2-Q1-1,#  &lt;You  ;  may not use  ;  any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements  ;  from the site or services  ;  to not use for advertising or targeting  ;  NULL&gt;  ,  &lt;Third party is: other users&gt;}
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['type2-Q1-1,', "Description: You may not use any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements.", 'You  ', '  may not use  ', "  any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements  ", '  from the site or services  ', '  to not use for advertising purposes or targeting advertisements  ', '  NULL', 'Third party is: Zoom']]</t>
+          <t>[['type2-Q1-1,', "Description: You may not use any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements.", 'You  ', '  may not use  ', "  any Zoom data or other users' data from the site or services for advertising purposes or for targeting advertisements  ", '  from the site or services  ', '  to not use for advertising or targeting  ', '  NULL', 'Third party is: other users']]</t>
         </is>
       </c>
     </row>
